--- a/test2.xlsx
+++ b/test2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>A</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -351,15 +354,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F2" sqref="F2:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -375,8 +378,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
@@ -392,8 +398,11 @@
       <c r="E2">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
@@ -409,8 +418,11 @@
       <c r="E3">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
@@ -426,8 +438,11 @@
       <c r="E4">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10</v>
       </c>
@@ -443,8 +458,11 @@
       <c r="E5">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10</v>
       </c>
@@ -460,8 +478,11 @@
       <c r="E6">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10</v>
       </c>
@@ -477,8 +498,11 @@
       <c r="E7">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10</v>
       </c>
@@ -494,8 +518,11 @@
       <c r="E8">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10</v>
       </c>
@@ -511,8 +538,11 @@
       <c r="E9">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -527,6 +557,9 @@
       </c>
       <c r="E10">
         <v>15</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
